--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:34:35+00:00</t>
+    <t>2022-11-28T14:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:50:55+00:00</t>
+    <t>2022-11-29T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$39</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -736,7 +733,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -1111,6 +1108,82 @@
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Condition.note.id</t>
+  </si>
+  <si>
+    <t>Condition.note.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Condition.note.author[x]</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+string</t>
+  </si>
+  <si>
+    <t>Individual responsible for the annotation</t>
+  </si>
+  <si>
+    <t>The individual responsible for making the annotation.</t>
+  </si>
+  <si>
+    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Annotation.author[x]</t>
+  </si>
+  <si>
+    <t>Act.participant[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>authorReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Condition.note.time</t>
+  </si>
+  <si>
+    <t>When the annotation was made</t>
+  </si>
+  <si>
+    <t>Indicates when this particular annotation was made.</t>
+  </si>
+  <si>
+    <t>Annotation.time</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>Condition.note.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>The annotation  - text content (as markdown)</t>
+  </si>
+  <si>
+    <t>The text of the annotation in markdown format.</t>
+  </si>
+  <si>
+    <t>Annotation.text</t>
+  </si>
+  <si>
+    <t>Act.text</t>
   </si>
 </sst>
 </file>
@@ -1239,21 +1312,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1430,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1466,7 +1524,7 @@
     <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1607,7 +1665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -1722,7 +1780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -1839,7 +1897,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -1954,7 +2012,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2071,7 +2129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2188,7 +2246,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2305,7 +2363,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2422,7 +2480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2553,7 +2611,7 @@
         <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2652,7 +2710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>143</v>
       </c>
@@ -2771,7 +2829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>150</v>
       </c>
@@ -2890,7 +2948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3007,7 +3065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>173</v>
       </c>
@@ -3124,7 +3182,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>184</v>
       </c>
@@ -3241,7 +3299,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>194</v>
       </c>
@@ -3374,7 +3432,7 @@
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3473,7 +3531,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>216</v>
       </c>
@@ -3590,7 +3648,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>226</v>
       </c>
@@ -3707,7 +3765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>236</v>
       </c>
@@ -3717,7 +3775,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -3824,7 +3882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>245</v>
       </c>
@@ -3941,7 +3999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>254</v>
       </c>
@@ -4058,7 +4116,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>261</v>
       </c>
@@ -4173,7 +4231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>268</v>
       </c>
@@ -4288,7 +4346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>274</v>
       </c>
@@ -4403,7 +4461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>280</v>
       </c>
@@ -4518,7 +4576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>286</v>
       </c>
@@ -4633,7 +4691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>292</v>
       </c>
@@ -4750,7 +4808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>296</v>
       </c>
@@ -4869,7 +4927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>301</v>
       </c>
@@ -4984,7 +5042,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>308</v>
       </c>
@@ -5099,7 +5157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>313</v>
       </c>
@@ -5214,7 +5272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>319</v>
       </c>
@@ -5331,7 +5389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>325</v>
       </c>
@@ -5446,7 +5504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>326</v>
       </c>
@@ -5563,7 +5621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>327</v>
       </c>
@@ -5682,7 +5740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>328</v>
       </c>
@@ -5797,7 +5855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>337</v>
       </c>
@@ -5925,10 +5983,10 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6027,25 +6085,703 @@
         <v>77</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO39">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>
@@ -447,7 +447,7 @@
     <t>extCovid19ConditionsOrComorbiditiesPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present}
+    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present}
 </t>
   </si>
   <si>
@@ -666,7 +666,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-conditions-comorbidity</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1521,7 +1521,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.29296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -447,7 +447,7 @@
     <t>extCovid19ConditionsOrComorbiditiesPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present}
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present}
 </t>
   </si>
   <si>
@@ -666,7 +666,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-conditions-comorbidity</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-conditions-comorbidity</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1521,7 +1521,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.29296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-conditions-or-comorbidities.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
